--- a/milestone 3/student_data_with_marks.xlsx
+++ b/milestone 3/student_data_with_marks.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Tracker\milestone 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Tracker\milestone 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CEA4A-6F9D-4B6A-A721-EAB0A18A5B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7725E2-B665-4021-AE8F-EE14FDE0A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="144" windowWidth="18348" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7692" yWindow="972" windowWidth="14328" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8899883-8666-4D37-8A4D-8FAB4258B888}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
